--- a/data/Dado.xlsx
+++ b/data/Dado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\tarsila\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\biotec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3497B40-3916-47A4-AAEB-63F52F49F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C528A93-9583-4B94-860E-56D19EC03A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E039E63C-36B8-48B7-B3CB-E3D1395D5D4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>F1</t>
   </si>
@@ -71,43 +71,46 @@
     <t>Herschel-BulkleyF1</t>
   </si>
   <si>
-    <t>Plástico de Bingham F1</t>
-  </si>
-  <si>
     <t>Lei de PotênciaF3</t>
   </si>
   <si>
     <t>Herschel-BulkleyF2</t>
   </si>
   <si>
-    <t>Plástico de Bingham F2</t>
-  </si>
-  <si>
     <t>Lei de PotênciaF2</t>
   </si>
   <si>
     <t>Herschel-BulkleyF3</t>
   </si>
   <si>
-    <t>Plástico de Bingham F3</t>
-  </si>
-  <si>
     <t>Herschel-BulkleyF4</t>
   </si>
   <si>
-    <t>Plástico de Bingham F4</t>
-  </si>
-  <si>
     <t>Lei de PotênciaF4</t>
   </si>
   <si>
     <t>Herschel-BulkleyF5</t>
   </si>
   <si>
-    <t>Plástico de Bingham F5</t>
-  </si>
-  <si>
     <t>Lei de PotênciaF5</t>
+  </si>
+  <si>
+    <t>Lei de PotênciaF1</t>
+  </si>
+  <si>
+    <t>Plástico de BinghamF2</t>
+  </si>
+  <si>
+    <t>Plástico de BinghamF1</t>
+  </si>
+  <si>
+    <t>Plástico de BinghamF3</t>
+  </si>
+  <si>
+    <t>Plástico de BinghamF4</t>
+  </si>
+  <si>
+    <t>Plástico de BinghamF5</t>
   </si>
 </sst>
 </file>
@@ -549,58 +552,58 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
         <v>4</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
